--- a/PkoGenerator/OrderTemplate.xlsx
+++ b/PkoGenerator/OrderTemplate.xlsx
@@ -2,42 +2,186 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nastya\PkoGenerator\PkoGenerator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="стр1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Контрагент</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+  <si>
+    <t>Дебет</t>
+  </si>
+  <si>
+    <t>корреспон-дирующий счет, субсчет</t>
+  </si>
+  <si>
+    <t>код аналити-ческого учета</t>
+  </si>
+  <si>
+    <t>Код целевого назначения</t>
+  </si>
+  <si>
+    <t>Кредит</t>
+  </si>
+  <si>
+    <t>Унифицированная форма № КО-1</t>
+  </si>
+  <si>
+    <t>Утверждена постановлением Госкомстата</t>
+  </si>
+  <si>
+    <t>России от 18.08.98 № 88</t>
+  </si>
+  <si>
+    <t>(организация)</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>0310001</t>
+  </si>
+  <si>
+    <t>Форма по ОКУД</t>
+  </si>
+  <si>
+    <t>по ОКПО</t>
+  </si>
+  <si>
+    <t>(структурное подразделение)</t>
+  </si>
+  <si>
+    <t>КВИТАНЦИЯ</t>
+  </si>
+  <si>
+    <t>к приходному кассовому ордеру №</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> г.</t>
+  </si>
+  <si>
+    <t>Дата составления</t>
+  </si>
+  <si>
+    <t>Номер документа</t>
+  </si>
+  <si>
+    <t>ПРИХОДНЫЙ КАССОВЫЙ ОРДЕР</t>
+  </si>
+  <si>
+    <t>Принято от</t>
+  </si>
+  <si>
+    <t>Основание:</t>
   </si>
   <si>
     <t>Сумма</t>
+  </si>
+  <si>
+    <t>руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> коп.</t>
+  </si>
+  <si>
+    <t>(цифрами)</t>
+  </si>
+  <si>
+    <t>(прописью)</t>
+  </si>
+  <si>
+    <t>В том числе</t>
+  </si>
+  <si>
+    <t>от  "</t>
+  </si>
+  <si>
+    <t>Приложение</t>
+  </si>
+  <si>
+    <t>М.П. (штампа)</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер</t>
+  </si>
+  <si>
+    <t>(подпись)</t>
+  </si>
+  <si>
+    <t>(расшифровка подписи)</t>
+  </si>
+  <si>
+    <t>Получил кассир</t>
+  </si>
+  <si>
+    <t>Кассир</t>
+  </si>
+  <si>
+    <t>Л    и    н     и     я              о     т     р     е     з     а</t>
+  </si>
+  <si>
+    <t>Сумма,
+руб. коп.</t>
+  </si>
+  <si>
+    <t>код струк-турного под-разделения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -57,17 +201,330 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -75,13 +532,204 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,32 +1011,2637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:DJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="BC27" sqref="BC27:BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="16384" width="0.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:114" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="10"/>
+    </row>
+    <row r="2" spans="1:114" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="10"/>
+    </row>
+    <row r="3" spans="1:114" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="21"/>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="21"/>
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="10"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="15"/>
+      <c r="CZ3" s="15"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="15"/>
+      <c r="DE3" s="15"/>
+      <c r="DF3" s="15"/>
+      <c r="DG3" s="15"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="15"/>
+      <c r="DJ3" s="15"/>
+    </row>
+    <row r="4" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="21"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="21"/>
+      <c r="BS4" s="22"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="11"/>
+      <c r="BW4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
+      <c r="CU4" s="16"/>
+      <c r="CV4" s="16"/>
+      <c r="CW4" s="16"/>
+      <c r="CX4" s="16"/>
+      <c r="CY4" s="16"/>
+      <c r="CZ4" s="16"/>
+      <c r="DA4" s="16"/>
+      <c r="DB4" s="16"/>
+      <c r="DC4" s="16"/>
+      <c r="DD4" s="16"/>
+      <c r="DE4" s="16"/>
+      <c r="DF4" s="16"/>
+      <c r="DG4" s="16"/>
+      <c r="DH4" s="16"/>
+      <c r="DI4" s="16"/>
+      <c r="DJ4" s="16"/>
+    </row>
+    <row r="5" spans="1:114" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AY5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="33"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="21"/>
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="21"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="10"/>
+    </row>
+    <row r="6" spans="1:114" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AW6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="35"/>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="36"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="10"/>
+      <c r="BW6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX6" s="67"/>
+      <c r="BY6" s="67"/>
+      <c r="BZ6" s="67"/>
+      <c r="CA6" s="67"/>
+      <c r="CB6" s="67"/>
+      <c r="CC6" s="67"/>
+      <c r="CD6" s="67"/>
+      <c r="CE6" s="67"/>
+      <c r="CF6" s="67"/>
+      <c r="CG6" s="67"/>
+      <c r="CH6" s="67"/>
+      <c r="CI6" s="67"/>
+      <c r="CJ6" s="67"/>
+      <c r="CK6" s="67"/>
+      <c r="CL6" s="67"/>
+      <c r="CM6" s="67"/>
+      <c r="CN6" s="67"/>
+      <c r="CO6" s="67"/>
+      <c r="CP6" s="67"/>
+      <c r="CQ6" s="67"/>
+      <c r="CR6" s="67"/>
+      <c r="CS6" s="67"/>
+      <c r="CT6" s="67"/>
+      <c r="CU6" s="67"/>
+      <c r="CV6" s="67"/>
+      <c r="CW6" s="67"/>
+      <c r="CX6" s="67"/>
+      <c r="CY6" s="67"/>
+      <c r="CZ6" s="67"/>
+      <c r="DA6" s="67"/>
+      <c r="DB6" s="67"/>
+      <c r="DC6" s="67"/>
+      <c r="DD6" s="67"/>
+      <c r="DE6" s="67"/>
+      <c r="DF6" s="67"/>
+      <c r="DG6" s="67"/>
+      <c r="DH6" s="67"/>
+      <c r="DI6" s="67"/>
+      <c r="DJ6" s="67"/>
+    </row>
+    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AW7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="29"/>
+      <c r="BE7" s="29"/>
+      <c r="BF7" s="29"/>
+      <c r="BG7" s="29"/>
+      <c r="BH7" s="29"/>
+      <c r="BI7" s="29"/>
+      <c r="BJ7" s="29"/>
+      <c r="BK7" s="29"/>
+      <c r="BL7" s="29"/>
+      <c r="BM7" s="30"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="8"/>
+      <c r="BU7" s="10"/>
+    </row>
+    <row r="8" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="39"/>
+      <c r="BO8" s="20"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="11"/>
+    </row>
+    <row r="9" spans="1:114" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="41"/>
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="41"/>
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="42"/>
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="10"/>
+      <c r="BW9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CU9" s="5"/>
+      <c r="CV9" s="5"/>
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="19"/>
+      <c r="CY9" s="19"/>
+      <c r="CZ9" s="19"/>
+      <c r="DA9" s="19"/>
+      <c r="DB9" s="19"/>
+      <c r="DC9" s="19"/>
+      <c r="DD9" s="19"/>
+      <c r="DE9" s="19"/>
+      <c r="DF9" s="19"/>
+      <c r="DG9" s="19"/>
+      <c r="DH9" s="19"/>
+      <c r="DI9" s="19"/>
+      <c r="DJ9" s="19"/>
+    </row>
+    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="10"/>
+      <c r="BW10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA10" s="19"/>
+      <c r="CB10" s="19"/>
+      <c r="CC10" s="19"/>
+      <c r="CD10" s="19"/>
+      <c r="CE10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG10" s="15"/>
+      <c r="CH10" s="15"/>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="15"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="15"/>
+      <c r="CS10" s="15"/>
+      <c r="CT10" s="15"/>
+      <c r="CU10" s="15"/>
+      <c r="CW10" s="15"/>
+      <c r="CX10" s="15"/>
+      <c r="CY10" s="15"/>
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="15"/>
+      <c r="DB10" s="15"/>
+      <c r="DC10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:114" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="45"/>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="45"/>
+      <c r="BI11" s="45"/>
+      <c r="BJ11" s="45"/>
+      <c r="BK11" s="45"/>
+      <c r="BL11" s="45"/>
+      <c r="BM11" s="46"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="22"/>
+      <c r="BT11" s="8"/>
+      <c r="BU11" s="10"/>
+    </row>
+    <row r="12" spans="1:114" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="48"/>
+      <c r="BM12" s="49"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="22"/>
+      <c r="BT12" s="8"/>
+      <c r="BU12" s="10"/>
+      <c r="BW12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="15"/>
+      <c r="CH12" s="15"/>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
+      <c r="CO12" s="15"/>
+      <c r="CP12" s="15"/>
+      <c r="CQ12" s="15"/>
+      <c r="CR12" s="15"/>
+      <c r="CS12" s="15"/>
+      <c r="CT12" s="15"/>
+      <c r="CU12" s="15"/>
+      <c r="CV12" s="15"/>
+      <c r="CW12" s="15"/>
+      <c r="CX12" s="15"/>
+      <c r="CY12" s="15"/>
+      <c r="CZ12" s="15"/>
+      <c r="DA12" s="15"/>
+      <c r="DB12" s="15"/>
+      <c r="DC12" s="15"/>
+      <c r="DD12" s="15"/>
+      <c r="DE12" s="15"/>
+      <c r="DF12" s="15"/>
+      <c r="DG12" s="15"/>
+      <c r="DH12" s="15"/>
+      <c r="DI12" s="15"/>
+      <c r="DJ12" s="15"/>
+    </row>
+    <row r="13" spans="1:114" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AO13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
+      <c r="AZ13" s="57"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="57"/>
+      <c r="BD13" s="57"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="57"/>
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="57"/>
+      <c r="BK13" s="57"/>
+      <c r="BL13" s="57"/>
+      <c r="BM13" s="60"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="8"/>
+      <c r="BU13" s="10"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CH13" s="15"/>
+      <c r="CI13" s="15"/>
+      <c r="CJ13" s="15"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="15"/>
+      <c r="CM13" s="15"/>
+      <c r="CN13" s="15"/>
+      <c r="CO13" s="15"/>
+      <c r="CP13" s="15"/>
+      <c r="CQ13" s="15"/>
+      <c r="CR13" s="15"/>
+      <c r="CS13" s="15"/>
+      <c r="CT13" s="15"/>
+      <c r="CU13" s="15"/>
+      <c r="CV13" s="15"/>
+      <c r="CW13" s="15"/>
+      <c r="CX13" s="15"/>
+      <c r="CY13" s="15"/>
+      <c r="CZ13" s="15"/>
+      <c r="DA13" s="15"/>
+      <c r="DB13" s="15"/>
+      <c r="DC13" s="15"/>
+      <c r="DD13" s="15"/>
+      <c r="DE13" s="15"/>
+      <c r="DF13" s="15"/>
+      <c r="DG13" s="15"/>
+      <c r="DH13" s="15"/>
+      <c r="DI13" s="15"/>
+      <c r="DJ13" s="15"/>
+    </row>
+    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="22"/>
+      <c r="BT14" s="8"/>
+      <c r="BU14" s="10"/>
+      <c r="BW14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF14" s="17"/>
+      <c r="CG14" s="17"/>
+      <c r="CH14" s="17"/>
+      <c r="CI14" s="17"/>
+      <c r="CJ14" s="17"/>
+      <c r="CK14" s="17"/>
+      <c r="CL14" s="17"/>
+      <c r="CM14" s="17"/>
+      <c r="CN14" s="17"/>
+      <c r="CO14" s="17"/>
+      <c r="CP14" s="17"/>
+      <c r="CQ14" s="17"/>
+      <c r="CR14" s="17"/>
+      <c r="CS14" s="17"/>
+      <c r="CT14" s="17"/>
+      <c r="CU14" s="17"/>
+      <c r="CV14" s="17"/>
+      <c r="CW14" s="17"/>
+      <c r="CX14" s="17"/>
+      <c r="CY14" s="17"/>
+      <c r="CZ14" s="17"/>
+      <c r="DA14" s="17"/>
+      <c r="DB14" s="17"/>
+      <c r="DC14" s="17"/>
+      <c r="DD14" s="17"/>
+      <c r="DE14" s="17"/>
+      <c r="DF14" s="17"/>
+      <c r="DG14" s="17"/>
+      <c r="DH14" s="17"/>
+      <c r="DI14" s="17"/>
+      <c r="DJ14" s="17"/>
+    </row>
+    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="61"/>
+      <c r="BI15" s="62"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="63"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="21"/>
+      <c r="BQ15" s="21"/>
+      <c r="BR15" s="21"/>
+      <c r="BS15" s="22"/>
+      <c r="BT15" s="8"/>
+      <c r="BU15" s="10"/>
+      <c r="BW15" s="15"/>
+      <c r="BX15" s="15"/>
+      <c r="BY15" s="15"/>
+      <c r="BZ15" s="15"/>
+      <c r="CA15" s="15"/>
+      <c r="CB15" s="15"/>
+      <c r="CC15" s="15"/>
+      <c r="CD15" s="15"/>
+      <c r="CE15" s="15"/>
+      <c r="CF15" s="15"/>
+      <c r="CG15" s="15"/>
+      <c r="CH15" s="15"/>
+      <c r="CI15" s="15"/>
+      <c r="CJ15" s="15"/>
+      <c r="CK15" s="15"/>
+      <c r="CL15" s="15"/>
+      <c r="CM15" s="15"/>
+      <c r="CN15" s="15"/>
+      <c r="CO15" s="15"/>
+      <c r="CP15" s="15"/>
+      <c r="CQ15" s="15"/>
+      <c r="CR15" s="15"/>
+      <c r="CS15" s="15"/>
+      <c r="CT15" s="15"/>
+      <c r="CU15" s="15"/>
+      <c r="CV15" s="15"/>
+      <c r="CW15" s="15"/>
+      <c r="CX15" s="15"/>
+      <c r="CY15" s="15"/>
+      <c r="CZ15" s="15"/>
+      <c r="DA15" s="15"/>
+      <c r="DB15" s="15"/>
+      <c r="DC15" s="15"/>
+      <c r="DD15" s="15"/>
+      <c r="DE15" s="15"/>
+      <c r="DF15" s="15"/>
+      <c r="DG15" s="15"/>
+      <c r="DH15" s="15"/>
+      <c r="DI15" s="15"/>
+      <c r="DJ15" s="15"/>
+    </row>
+    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50" t="s">
         <v>1</v>
       </c>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="55"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="55"/>
+      <c r="BH16" s="64"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="66"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="21"/>
+      <c r="BQ16" s="21"/>
+      <c r="BR16" s="21"/>
+      <c r="BS16" s="22"/>
+      <c r="BT16" s="8"/>
+      <c r="BU16" s="10"/>
+      <c r="BW16" s="17"/>
+      <c r="BX16" s="17"/>
+      <c r="BY16" s="17"/>
+      <c r="BZ16" s="17"/>
+      <c r="CA16" s="17"/>
+      <c r="CB16" s="17"/>
+      <c r="CC16" s="17"/>
+      <c r="CD16" s="17"/>
+      <c r="CE16" s="17"/>
+      <c r="CF16" s="17"/>
+      <c r="CG16" s="17"/>
+      <c r="CH16" s="17"/>
+      <c r="CI16" s="17"/>
+      <c r="CJ16" s="17"/>
+      <c r="CK16" s="17"/>
+      <c r="CL16" s="17"/>
+      <c r="CM16" s="17"/>
+      <c r="CN16" s="17"/>
+      <c r="CO16" s="17"/>
+      <c r="CP16" s="17"/>
+      <c r="CQ16" s="17"/>
+      <c r="CR16" s="17"/>
+      <c r="CS16" s="17"/>
+      <c r="CT16" s="17"/>
+      <c r="CU16" s="17"/>
+      <c r="CV16" s="17"/>
+      <c r="CW16" s="17"/>
+      <c r="CX16" s="17"/>
+      <c r="CY16" s="17"/>
+      <c r="CZ16" s="17"/>
+      <c r="DA16" s="17"/>
+      <c r="DB16" s="17"/>
+      <c r="DC16" s="17"/>
+      <c r="DD16" s="17"/>
+      <c r="DE16" s="17"/>
+      <c r="DF16" s="17"/>
+      <c r="DG16" s="17"/>
+      <c r="DH16" s="17"/>
+      <c r="DI16" s="17"/>
+      <c r="DJ16" s="17"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="55"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="55"/>
+      <c r="BH17" s="64"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="66"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="21"/>
+      <c r="BR17" s="21"/>
+      <c r="BS17" s="22"/>
+      <c r="BT17" s="8"/>
+      <c r="BU17" s="10"/>
+      <c r="BW17" s="17"/>
+      <c r="BX17" s="17"/>
+      <c r="BY17" s="17"/>
+      <c r="BZ17" s="17"/>
+      <c r="CA17" s="17"/>
+      <c r="CB17" s="17"/>
+      <c r="CC17" s="17"/>
+      <c r="CD17" s="17"/>
+      <c r="CE17" s="17"/>
+      <c r="CF17" s="17"/>
+      <c r="CG17" s="17"/>
+      <c r="CH17" s="17"/>
+      <c r="CI17" s="17"/>
+      <c r="CJ17" s="17"/>
+      <c r="CK17" s="17"/>
+      <c r="CL17" s="17"/>
+      <c r="CM17" s="17"/>
+      <c r="CN17" s="17"/>
+      <c r="CO17" s="17"/>
+      <c r="CP17" s="17"/>
+      <c r="CQ17" s="17"/>
+      <c r="CR17" s="17"/>
+      <c r="CS17" s="17"/>
+      <c r="CT17" s="17"/>
+      <c r="CU17" s="17"/>
+      <c r="CV17" s="17"/>
+      <c r="CW17" s="17"/>
+      <c r="CX17" s="17"/>
+      <c r="CY17" s="17"/>
+      <c r="CZ17" s="17"/>
+      <c r="DA17" s="17"/>
+      <c r="DB17" s="17"/>
+      <c r="DC17" s="17"/>
+      <c r="DD17" s="17"/>
+      <c r="DE17" s="17"/>
+      <c r="DF17" s="17"/>
+      <c r="DG17" s="17"/>
+      <c r="DH17" s="17"/>
+      <c r="DI17" s="17"/>
+      <c r="DJ17" s="17"/>
+    </row>
+    <row r="18" spans="1:114" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="55"/>
+      <c r="BH18" s="64"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="66"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="21"/>
+      <c r="BR18" s="21"/>
+      <c r="BS18" s="22"/>
+      <c r="BT18" s="8"/>
+      <c r="BU18" s="10"/>
+    </row>
+    <row r="19" spans="1:114" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="24"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="26"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="22"/>
+      <c r="BT19" s="8"/>
+      <c r="BU19" s="10"/>
+      <c r="BW19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC19" s="23"/>
+      <c r="CD19" s="23"/>
+      <c r="CE19" s="23"/>
+      <c r="CF19" s="23"/>
+      <c r="CG19" s="23"/>
+      <c r="CH19" s="23"/>
+      <c r="CI19" s="23"/>
+      <c r="CJ19" s="23"/>
+      <c r="CK19" s="23"/>
+      <c r="CL19" s="23"/>
+      <c r="CM19" s="23"/>
+      <c r="CN19" s="23"/>
+      <c r="CO19" s="23"/>
+      <c r="CP19" s="23"/>
+      <c r="CQ19" s="23"/>
+      <c r="CR19" s="23"/>
+      <c r="CS19" s="23"/>
+      <c r="CU19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW19" s="12"/>
+      <c r="CX19" s="12"/>
+      <c r="CY19" s="15"/>
+      <c r="CZ19" s="15"/>
+      <c r="DA19" s="15"/>
+      <c r="DB19" s="15"/>
+      <c r="DC19" s="15"/>
+      <c r="DD19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="BO20" s="20"/>
+      <c r="BP20" s="21"/>
+      <c r="BQ20" s="21"/>
+      <c r="BR20" s="21"/>
+      <c r="BS20" s="22"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="11"/>
+      <c r="CC20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD20" s="16"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="16"/>
+      <c r="CI20" s="16"/>
+      <c r="CJ20" s="16"/>
+      <c r="CK20" s="16"/>
+      <c r="CL20" s="16"/>
+      <c r="CM20" s="16"/>
+      <c r="CN20" s="16"/>
+      <c r="CO20" s="16"/>
+      <c r="CP20" s="16"/>
+      <c r="CQ20" s="16"/>
+      <c r="CR20" s="16"/>
+      <c r="CS20" s="16"/>
+    </row>
+    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="21"/>
+      <c r="BQ21" s="21"/>
+      <c r="BR21" s="21"/>
+      <c r="BS21" s="22"/>
+      <c r="BT21" s="8"/>
+      <c r="BU21" s="10"/>
+      <c r="BW21" s="15"/>
+      <c r="BX21" s="15"/>
+      <c r="BY21" s="15"/>
+      <c r="BZ21" s="15"/>
+      <c r="CA21" s="15"/>
+      <c r="CB21" s="15"/>
+      <c r="CC21" s="15"/>
+      <c r="CD21" s="15"/>
+      <c r="CE21" s="15"/>
+      <c r="CF21" s="15"/>
+      <c r="CG21" s="15"/>
+      <c r="CH21" s="15"/>
+      <c r="CI21" s="15"/>
+      <c r="CJ21" s="15"/>
+      <c r="CK21" s="15"/>
+      <c r="CL21" s="15"/>
+      <c r="CM21" s="15"/>
+      <c r="CN21" s="15"/>
+      <c r="CO21" s="15"/>
+      <c r="CP21" s="15"/>
+      <c r="CQ21" s="15"/>
+      <c r="CR21" s="15"/>
+      <c r="CS21" s="15"/>
+      <c r="CT21" s="15"/>
+      <c r="CU21" s="15"/>
+      <c r="CV21" s="15"/>
+      <c r="CW21" s="15"/>
+      <c r="CX21" s="15"/>
+      <c r="CY21" s="15"/>
+      <c r="CZ21" s="15"/>
+      <c r="DA21" s="15"/>
+      <c r="DB21" s="15"/>
+      <c r="DC21" s="15"/>
+      <c r="DD21" s="15"/>
+      <c r="DE21" s="15"/>
+      <c r="DF21" s="15"/>
+      <c r="DG21" s="15"/>
+      <c r="DH21" s="15"/>
+      <c r="DI21" s="15"/>
+      <c r="DJ21" s="15"/>
+    </row>
+    <row r="22" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="21"/>
+      <c r="BQ22" s="21"/>
+      <c r="BR22" s="21"/>
+      <c r="BS22" s="22"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="11"/>
+      <c r="BW22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX22" s="16"/>
+      <c r="BY22" s="16"/>
+      <c r="BZ22" s="16"/>
+      <c r="CA22" s="16"/>
+      <c r="CB22" s="16"/>
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="16"/>
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="16"/>
+      <c r="CG22" s="16"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="16"/>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="16"/>
+      <c r="CN22" s="16"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="16"/>
+      <c r="CU22" s="16"/>
+      <c r="CV22" s="16"/>
+      <c r="CW22" s="16"/>
+      <c r="CX22" s="16"/>
+      <c r="CY22" s="16"/>
+      <c r="CZ22" s="16"/>
+      <c r="DA22" s="16"/>
+      <c r="DB22" s="16"/>
+      <c r="DC22" s="16"/>
+      <c r="DD22" s="16"/>
+      <c r="DE22" s="16"/>
+      <c r="DF22" s="16"/>
+      <c r="DG22" s="16"/>
+      <c r="DH22" s="16"/>
+      <c r="DI22" s="16"/>
+      <c r="DJ22" s="16"/>
+    </row>
+    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="21"/>
+      <c r="BQ23" s="21"/>
+      <c r="BR23" s="21"/>
+      <c r="BS23" s="22"/>
+      <c r="BT23" s="8"/>
+      <c r="BU23" s="10"/>
+      <c r="BW23" s="15"/>
+      <c r="BX23" s="15"/>
+      <c r="BY23" s="15"/>
+      <c r="BZ23" s="15"/>
+      <c r="CA23" s="15"/>
+      <c r="CB23" s="15"/>
+      <c r="CC23" s="15"/>
+      <c r="CD23" s="15"/>
+      <c r="CE23" s="15"/>
+      <c r="CF23" s="15"/>
+      <c r="CG23" s="15"/>
+      <c r="CH23" s="15"/>
+      <c r="CI23" s="15"/>
+      <c r="CJ23" s="15"/>
+      <c r="CK23" s="15"/>
+      <c r="CL23" s="15"/>
+      <c r="CM23" s="15"/>
+      <c r="CN23" s="15"/>
+      <c r="CO23" s="15"/>
+      <c r="CP23" s="15"/>
+      <c r="CQ23" s="15"/>
+      <c r="CR23" s="15"/>
+      <c r="CS23" s="15"/>
+      <c r="CT23" s="15"/>
+      <c r="CU23" s="15"/>
+      <c r="CV23" s="15"/>
+      <c r="CW23" s="15"/>
+      <c r="CX23" s="15"/>
+      <c r="CY23" s="15"/>
+      <c r="CZ23" s="15"/>
+      <c r="DA23" s="15"/>
+      <c r="DB23" s="15"/>
+      <c r="DC23" s="15"/>
+      <c r="DD23" s="15"/>
+      <c r="DE23" s="15"/>
+      <c r="DF23" s="15"/>
+      <c r="DG23" s="15"/>
+      <c r="DH23" s="15"/>
+      <c r="DI23" s="15"/>
+      <c r="DJ23" s="15"/>
+    </row>
+    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="21"/>
+      <c r="BQ24" s="21"/>
+      <c r="BR24" s="21"/>
+      <c r="BS24" s="22"/>
+      <c r="BT24" s="8"/>
+      <c r="BU24" s="10"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU24" s="18"/>
+      <c r="CV24" s="18"/>
+      <c r="CW24" s="18"/>
+      <c r="CX24" s="18"/>
+      <c r="CY24" s="15"/>
+      <c r="CZ24" s="15"/>
+      <c r="DA24" s="15"/>
+      <c r="DB24" s="15"/>
+      <c r="DC24" s="15"/>
+      <c r="DD24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DG24" s="3"/>
+      <c r="DH24" s="3"/>
+      <c r="DI24" s="3"/>
+      <c r="DJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="17"/>
+      <c r="BL25" s="17"/>
+      <c r="BM25" s="17"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="21"/>
+      <c r="BQ25" s="21"/>
+      <c r="BR25" s="21"/>
+      <c r="BS25" s="22"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="10"/>
+      <c r="BW25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CG25" s="15"/>
+      <c r="CH25" s="15"/>
+      <c r="CI25" s="15"/>
+      <c r="CJ25" s="15"/>
+      <c r="CK25" s="15"/>
+      <c r="CL25" s="15"/>
+      <c r="CM25" s="15"/>
+      <c r="CN25" s="15"/>
+      <c r="CO25" s="15"/>
+      <c r="CP25" s="15"/>
+      <c r="CQ25" s="15"/>
+      <c r="CR25" s="15"/>
+      <c r="CS25" s="15"/>
+      <c r="CT25" s="15"/>
+      <c r="CU25" s="15"/>
+      <c r="CV25" s="15"/>
+      <c r="CW25" s="15"/>
+      <c r="CX25" s="15"/>
+      <c r="CY25" s="15"/>
+      <c r="CZ25" s="15"/>
+      <c r="DA25" s="15"/>
+      <c r="DB25" s="15"/>
+      <c r="DC25" s="15"/>
+      <c r="DD25" s="15"/>
+      <c r="DE25" s="15"/>
+      <c r="DF25" s="15"/>
+      <c r="DG25" s="15"/>
+      <c r="DH25" s="15"/>
+      <c r="DI25" s="15"/>
+      <c r="DJ25" s="15"/>
+    </row>
+    <row r="26" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="H26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="21"/>
+      <c r="BQ26" s="21"/>
+      <c r="BR26" s="21"/>
+      <c r="BS26" s="22"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="11"/>
+    </row>
+    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="21"/>
+      <c r="BQ27" s="21"/>
+      <c r="BR27" s="21"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="8"/>
+      <c r="BU27" s="10"/>
+      <c r="BX27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY27" s="19"/>
+      <c r="BZ27" s="19"/>
+      <c r="CA27" s="19"/>
+      <c r="CB27" s="19"/>
+      <c r="CC27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD27" s="13"/>
+      <c r="CE27" s="19"/>
+      <c r="CF27" s="19"/>
+      <c r="CG27" s="19"/>
+      <c r="CH27" s="19"/>
+      <c r="CI27" s="19"/>
+      <c r="CJ27" s="19"/>
+      <c r="CK27" s="19"/>
+      <c r="CL27" s="19"/>
+      <c r="CM27" s="19"/>
+      <c r="CN27" s="19"/>
+      <c r="CO27" s="19"/>
+      <c r="CP27" s="19"/>
+      <c r="CQ27" s="19"/>
+      <c r="CR27" s="19"/>
+      <c r="CS27" s="19"/>
+      <c r="CT27" s="13"/>
+      <c r="CU27" s="19"/>
+      <c r="CV27" s="19"/>
+      <c r="CW27" s="19"/>
+      <c r="CX27" s="19"/>
+      <c r="CY27" s="19"/>
+      <c r="CZ27" s="19"/>
+      <c r="DA27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="21"/>
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="8"/>
+      <c r="BU28" s="10"/>
+    </row>
+    <row r="29" spans="1:114" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="21"/>
+      <c r="BQ29" s="21"/>
+      <c r="BR29" s="21"/>
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="8"/>
+      <c r="BU29" s="10"/>
+      <c r="BZ29" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA29" s="68"/>
+      <c r="CB29" s="68"/>
+      <c r="CC29" s="68"/>
+      <c r="CD29" s="68"/>
+      <c r="CE29" s="68"/>
+      <c r="CF29" s="68"/>
+      <c r="CG29" s="68"/>
+      <c r="CH29" s="68"/>
+      <c r="CI29" s="68"/>
+      <c r="CJ29" s="68"/>
+      <c r="CK29" s="68"/>
+      <c r="CL29" s="68"/>
+    </row>
+    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="21"/>
+      <c r="BS30" s="22"/>
+      <c r="BT30" s="8"/>
+      <c r="BU30" s="10"/>
+      <c r="BZ30" s="68"/>
+      <c r="CA30" s="68"/>
+      <c r="CB30" s="68"/>
+      <c r="CC30" s="68"/>
+      <c r="CD30" s="68"/>
+      <c r="CE30" s="68"/>
+      <c r="CF30" s="68"/>
+      <c r="CG30" s="68"/>
+      <c r="CH30" s="68"/>
+      <c r="CI30" s="68"/>
+      <c r="CJ30" s="68"/>
+      <c r="CK30" s="68"/>
+      <c r="CL30" s="68"/>
+    </row>
+    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="BO31" s="20"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="21"/>
+      <c r="BR31" s="21"/>
+      <c r="BS31" s="22"/>
+      <c r="BT31" s="8"/>
+      <c r="BU31" s="10"/>
+    </row>
+    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BO32" s="20"/>
+      <c r="BP32" s="21"/>
+      <c r="BQ32" s="21"/>
+      <c r="BR32" s="21"/>
+      <c r="BS32" s="22"/>
+      <c r="BT32" s="8"/>
+      <c r="BU32" s="10"/>
+      <c r="BW32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="15"/>
+      <c r="CO32" s="15"/>
+      <c r="CP32" s="15"/>
+      <c r="CQ32" s="15"/>
+      <c r="CR32" s="15"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="15"/>
+      <c r="CU32" s="15"/>
+      <c r="CW32" s="15"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="15"/>
+      <c r="CZ32" s="15"/>
+      <c r="DA32" s="15"/>
+      <c r="DB32" s="15"/>
+      <c r="DC32" s="15"/>
+      <c r="DD32" s="15"/>
+      <c r="DE32" s="15"/>
+      <c r="DF32" s="15"/>
+      <c r="DG32" s="15"/>
+      <c r="DH32" s="15"/>
+      <c r="DI32" s="15"/>
+      <c r="DJ32" s="15"/>
+    </row>
+    <row r="33" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="S33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AH33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="16"/>
+      <c r="BE33" s="16"/>
+      <c r="BF33" s="16"/>
+      <c r="BO33" s="20"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="21"/>
+      <c r="BR33" s="21"/>
+      <c r="BS33" s="22"/>
+      <c r="BT33" s="9"/>
+      <c r="BU33" s="11"/>
+      <c r="CM33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN33" s="16"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
+      <c r="CU33" s="16"/>
+      <c r="CW33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX33" s="16"/>
+      <c r="CY33" s="16"/>
+      <c r="CZ33" s="16"/>
+      <c r="DA33" s="16"/>
+      <c r="DB33" s="16"/>
+      <c r="DC33" s="16"/>
+      <c r="DD33" s="16"/>
+      <c r="DE33" s="16"/>
+      <c r="DF33" s="16"/>
+      <c r="DG33" s="16"/>
+      <c r="DH33" s="16"/>
+      <c r="DI33" s="16"/>
+      <c r="DJ33" s="16"/>
+    </row>
+    <row r="34" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BO34" s="20"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21"/>
+      <c r="BS34" s="22"/>
+      <c r="BT34" s="8"/>
+      <c r="BU34" s="10"/>
+      <c r="BW34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="15"/>
+      <c r="CF34" s="15"/>
+      <c r="CG34" s="15"/>
+      <c r="CH34" s="15"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="15"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
+      <c r="CP34" s="15"/>
+      <c r="CQ34" s="15"/>
+      <c r="CR34" s="15"/>
+      <c r="CS34" s="15"/>
+      <c r="CT34" s="15"/>
+      <c r="CU34" s="15"/>
+      <c r="CV34" s="15"/>
+      <c r="CW34" s="15"/>
+      <c r="CX34" s="15"/>
+      <c r="CY34" s="15"/>
+      <c r="CZ34" s="15"/>
+      <c r="DA34" s="15"/>
+    </row>
+    <row r="35" spans="1:114" s="2" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="S35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AH35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BO35" s="20"/>
+      <c r="BP35" s="21"/>
+      <c r="BQ35" s="21"/>
+      <c r="BR35" s="21"/>
+      <c r="BS35" s="22"/>
+      <c r="BT35" s="9"/>
+      <c r="BU35" s="11"/>
+      <c r="CD35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CN35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
+      <c r="CV35" s="16"/>
+      <c r="CW35" s="16"/>
+      <c r="CX35" s="16"/>
+      <c r="CY35" s="16"/>
+      <c r="CZ35" s="16"/>
+      <c r="DA35" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="83">
+    <mergeCell ref="G15:AN15"/>
+    <mergeCell ref="AD19:AN19"/>
+    <mergeCell ref="CA10:CD10"/>
+    <mergeCell ref="CG10:CU10"/>
+    <mergeCell ref="CW10:DB10"/>
+    <mergeCell ref="A15:F18"/>
+    <mergeCell ref="BZ29:CL30"/>
+    <mergeCell ref="K16:S18"/>
+    <mergeCell ref="G16:J18"/>
+    <mergeCell ref="BW16:DJ16"/>
+    <mergeCell ref="BW17:DJ17"/>
+    <mergeCell ref="AD16:AN18"/>
+    <mergeCell ref="BW13:DJ13"/>
+    <mergeCell ref="CF14:DJ14"/>
+    <mergeCell ref="BW15:DJ15"/>
+    <mergeCell ref="AO15:AW18"/>
+    <mergeCell ref="AX15:BG18"/>
+    <mergeCell ref="AQ13:BA13"/>
+    <mergeCell ref="BB13:BM13"/>
+    <mergeCell ref="BH15:BM18"/>
+    <mergeCell ref="CF12:DJ12"/>
+    <mergeCell ref="CX9:DJ9"/>
+    <mergeCell ref="BW3:DJ3"/>
+    <mergeCell ref="BW4:DJ4"/>
+    <mergeCell ref="AY5:BM5"/>
+    <mergeCell ref="AY6:BM6"/>
+    <mergeCell ref="AY8:BM9"/>
+    <mergeCell ref="BB11:BM12"/>
+    <mergeCell ref="AQ11:BA12"/>
+    <mergeCell ref="BW6:DJ6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:S19"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="AY7:BM7"/>
+    <mergeCell ref="A7:AM7"/>
+    <mergeCell ref="A8:AM8"/>
+    <mergeCell ref="A9:AX9"/>
+    <mergeCell ref="A10:AX10"/>
+    <mergeCell ref="T16:AC18"/>
+    <mergeCell ref="CC19:CS19"/>
+    <mergeCell ref="CY19:DC19"/>
+    <mergeCell ref="CC20:CS20"/>
+    <mergeCell ref="AO19:AW19"/>
+    <mergeCell ref="AX19:BG19"/>
+    <mergeCell ref="BH19:BM19"/>
+    <mergeCell ref="K21:BM21"/>
+    <mergeCell ref="BW21:DJ21"/>
+    <mergeCell ref="K28:BM28"/>
+    <mergeCell ref="BW22:DJ22"/>
+    <mergeCell ref="K23:BM23"/>
+    <mergeCell ref="A24:BM24"/>
+    <mergeCell ref="BW23:DJ23"/>
+    <mergeCell ref="BW24:CS24"/>
+    <mergeCell ref="CT24:CX24"/>
+    <mergeCell ref="CY24:DC24"/>
+    <mergeCell ref="CG25:DJ25"/>
+    <mergeCell ref="H25:BM25"/>
+    <mergeCell ref="H26:BM26"/>
+    <mergeCell ref="AX27:BB27"/>
+    <mergeCell ref="BC27:BG27"/>
+    <mergeCell ref="A27:AW27"/>
+    <mergeCell ref="BY27:CB27"/>
+    <mergeCell ref="CE27:CS27"/>
+    <mergeCell ref="CU27:CZ27"/>
+    <mergeCell ref="BO1:BS35"/>
+    <mergeCell ref="S34:AD34"/>
+    <mergeCell ref="AH34:BF34"/>
+    <mergeCell ref="S35:AD35"/>
+    <mergeCell ref="AH35:BF35"/>
+    <mergeCell ref="L30:BM30"/>
+    <mergeCell ref="S32:AD32"/>
+    <mergeCell ref="AH32:BF32"/>
+    <mergeCell ref="S33:AD33"/>
+    <mergeCell ref="AH33:BF33"/>
+    <mergeCell ref="CD34:CL34"/>
+    <mergeCell ref="CN34:DA34"/>
+    <mergeCell ref="CD35:CL35"/>
+    <mergeCell ref="CN35:DA35"/>
+    <mergeCell ref="CM32:CU32"/>
+    <mergeCell ref="CM33:CU33"/>
+    <mergeCell ref="CW32:DJ32"/>
+    <mergeCell ref="CW33:DJ33"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.47244094488188981" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R&amp;"Times New Roman,обычный"&amp;7Подготовлено с использованием системы &amp;"Times New Roman,полужирный"КонсультантПлюс</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>